--- a/0_CERTIFICATES/2025-12-30_COURSE_Sheet.xlsx
+++ b/0_CERTIFICATES/2025-12-30_COURSE_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\CourseraPlus\0_CERTIFICATES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A26CF18-8858-4826-A99C-616578A9470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311CD03-FAF0-4565-ABA0-D0494338A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Old_REF" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Coursera Records_'!$E$3:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CourseraPlus_02!$B$4:$H$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CourseraPlus_Prev_01!$B$4:$H$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LinkedIn_Learning!$B$4:$G$34</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="323">
   <si>
     <t>COURSERA Plus Courses</t>
   </si>
@@ -674,33 +675,15 @@
     <t>(USD 16 / month subscription)</t>
   </si>
   <si>
-    <t>Product Type</t>
-  </si>
-  <si>
     <t>Payment Date</t>
   </si>
   <si>
-    <t>Payment amount (in USD)</t>
-  </si>
-  <si>
-    <t>Was this refunded? Y/N</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>ENROLLMENT INFORMATION</t>
   </si>
   <si>
     <t>Enrollment Date</t>
   </si>
   <si>
-    <t>Paid Y/N</t>
-  </si>
-  <si>
     <t>Grade Achieved</t>
   </si>
   <si>
@@ -1029,14 +1012,22 @@
   </si>
   <si>
     <t>Computer Networks and Network Security</t>
+  </si>
+  <si>
+    <t>Payment (USD)</t>
+  </si>
+  <si>
+    <t>2025 - 12 - 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1231,7 +1222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1280,12 +1271,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1381,14 +1382,22 @@
     <xf numFmtId="14" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="17" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -6676,3074 +6685,2198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30DA94D-FCF0-47F8-A413-9C84EB98B3F5}">
-  <dimension ref="B2:F223"/>
+  <dimension ref="B2:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5546875" customWidth="1"/>
+    <col min="5" max="5" width="52.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="C3" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="41">
+        <v>44614</v>
+      </c>
+      <c r="C4" s="40">
+        <v>59</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="38">
+        <v>41540</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="41">
+        <v>44642</v>
+      </c>
+      <c r="C5" s="40">
+        <v>59</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="38">
+        <v>41650</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
+        <v>44673</v>
+      </c>
+      <c r="C6" s="40">
+        <v>59</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="38">
+        <v>41650</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
+        <v>44703</v>
+      </c>
+      <c r="C7" s="40">
+        <v>59</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="38">
+        <v>41650</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
+        <v>45413</v>
+      </c>
+      <c r="C8" s="40">
+        <v>59</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="38">
+        <v>41655</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="41">
+        <v>45444</v>
+      </c>
+      <c r="C9" s="40">
+        <v>59</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="38">
+        <v>41716</v>
+      </c>
+      <c r="G9" s="39">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="41">
+        <v>45474</v>
+      </c>
+      <c r="C10" s="40">
+        <v>59</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="38">
+        <v>41730</v>
+      </c>
+      <c r="G10" s="39">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
+        <v>45505</v>
+      </c>
+      <c r="C11" s="40">
+        <v>59</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="38">
+        <v>41752</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>45536</v>
+      </c>
+      <c r="C12" s="40">
+        <v>59</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="38">
+        <v>41752</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <v>45566</v>
+      </c>
+      <c r="C13" s="40">
+        <v>59</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="38">
+        <v>41753</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
+        <v>45597</v>
+      </c>
+      <c r="C14" s="40">
+        <v>59</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="38">
+        <v>41770</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="41">
+        <v>45627</v>
+      </c>
+      <c r="C15" s="40">
+        <v>59</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="38">
+        <v>41782</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
+        <v>45658</v>
+      </c>
+      <c r="C16" s="40">
+        <v>59</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="38">
+        <v>41806</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="41">
+        <v>45689</v>
+      </c>
+      <c r="C17" s="40">
+        <v>59</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="38">
+        <v>41806</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="41">
+        <v>45717</v>
+      </c>
+      <c r="C18" s="40">
+        <v>59</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="38">
+        <v>41860</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="41">
+        <v>45748</v>
+      </c>
+      <c r="C19" s="40">
+        <v>59</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="38">
+        <v>41860</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="41">
+        <v>45778</v>
+      </c>
+      <c r="C20" s="40">
+        <v>59</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="38">
+        <v>42021</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>45809</v>
+      </c>
+      <c r="C21" s="40">
+        <v>59</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="38">
+        <v>42046</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
+        <v>45839</v>
+      </c>
+      <c r="C22" s="40">
+        <v>59</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="38">
+        <v>42084</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="41">
+        <v>45870</v>
+      </c>
+      <c r="C23" s="40">
+        <v>59</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="38">
+        <v>42084</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="41">
+        <v>45901</v>
+      </c>
+      <c r="C24" s="40">
+        <v>59</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" s="38">
+        <v>42106</v>
+      </c>
+      <c r="G24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="41">
+        <v>45931</v>
+      </c>
+      <c r="C25" s="40">
+        <v>59</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="38">
+        <v>42327</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="41">
+        <v>45962</v>
+      </c>
+      <c r="C26" s="40">
+        <v>29.5</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="38">
+        <v>42374</v>
+      </c>
+      <c r="G26" s="39">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="41">
+        <v>45992</v>
+      </c>
+      <c r="C27" s="40">
+        <v>59</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="38">
+        <v>42374</v>
+      </c>
+      <c r="G27" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="41">
+        <v>44734</v>
+      </c>
+      <c r="C28" s="40">
+        <v>59</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="38">
+        <v>42480</v>
+      </c>
+      <c r="G28" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="41">
+        <v>44764</v>
+      </c>
+      <c r="C29" s="40">
+        <v>58.98</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="38">
+        <v>42485</v>
+      </c>
+      <c r="G29" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
+        <v>44795</v>
+      </c>
+      <c r="C30" s="40">
+        <v>59</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="38">
+        <v>42485</v>
+      </c>
+      <c r="G30" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="41">
+        <v>44826</v>
+      </c>
+      <c r="C31" s="40">
+        <v>59</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="38">
+        <v>42549</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="41">
+        <v>44856</v>
+      </c>
+      <c r="C32" s="40">
+        <v>59</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="38">
+        <v>42752</v>
+      </c>
+      <c r="G32" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="41">
+        <v>44887</v>
+      </c>
+      <c r="C33" s="40">
+        <v>59</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="38">
+        <v>43735</v>
+      </c>
+      <c r="G33" s="39">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="41">
+        <v>44917</v>
+      </c>
+      <c r="C34" s="40">
+        <v>59</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="38">
+        <v>43735</v>
+      </c>
+      <c r="G34" s="39">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="41">
+        <v>44948</v>
+      </c>
+      <c r="C35" s="40">
+        <v>59</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="38">
+        <v>43793</v>
+      </c>
+      <c r="G35" s="39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="41">
+        <v>44979</v>
+      </c>
+      <c r="C36" s="40">
+        <v>59</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="38">
+        <v>43903</v>
+      </c>
+      <c r="G36" s="39">
+        <v>0.31659999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="41">
+        <v>45017</v>
+      </c>
+      <c r="C37" s="40">
+        <v>59</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="38">
+        <v>44030</v>
+      </c>
+      <c r="G37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="41">
+        <v>45047</v>
+      </c>
+      <c r="C38" s="40">
+        <v>59</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="38">
+        <v>44073</v>
+      </c>
+      <c r="G38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="41">
+        <v>45078</v>
+      </c>
+      <c r="C39" s="40">
+        <v>59</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="38">
+        <v>44078</v>
+      </c>
+      <c r="G39" s="39">
+        <v>0.10800000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="41">
+        <v>45108</v>
+      </c>
+      <c r="C40" s="40">
+        <v>59</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="38">
+        <v>44078</v>
+      </c>
+      <c r="G40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="41">
+        <v>45139</v>
+      </c>
+      <c r="C41" s="40">
+        <v>59</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F41" s="38">
+        <v>44142</v>
+      </c>
+      <c r="G41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="41">
+        <v>45170</v>
+      </c>
+      <c r="C42" s="40">
+        <v>59</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="38">
+        <v>44151</v>
+      </c>
+      <c r="G42" s="39">
+        <v>0.21149999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="41">
+        <v>45200</v>
+      </c>
+      <c r="C43" s="40">
+        <v>59</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="38">
+        <v>44151</v>
+      </c>
+      <c r="G43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="41">
+        <v>45231</v>
+      </c>
+      <c r="C44" s="40">
+        <v>59</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" s="38">
+        <v>44151</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="41">
+        <v>45261</v>
+      </c>
+      <c r="C45" s="40">
+        <v>59</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="38">
+        <v>44151</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="41">
+        <v>45292</v>
+      </c>
+      <c r="C46" s="40">
+        <v>59</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="38">
+        <v>44212</v>
+      </c>
+      <c r="G46" s="39">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="41">
+        <v>45323</v>
+      </c>
+      <c r="C47" s="40">
+        <v>59</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="38">
+        <v>44212</v>
+      </c>
+      <c r="G47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="41">
+        <v>45352</v>
+      </c>
+      <c r="C48" s="40">
+        <v>59</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="38">
+        <v>44243</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="41">
+        <v>45383</v>
+      </c>
+      <c r="C49" s="40">
+        <v>59</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="38">
+        <v>44606</v>
+      </c>
+      <c r="G49" s="39">
+        <v>0.86239999999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="43">
+        <f>SUM(C4:C49)</f>
+        <v>2684.48</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="38">
+        <v>44606</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0.19239999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="38">
+        <v>44606</v>
+      </c>
+      <c r="G51" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="38">
+        <v>44607</v>
+      </c>
+      <c r="G52" s="39">
+        <v>0.94330000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="38">
+        <v>44612</v>
+      </c>
+      <c r="G53" s="39">
+        <v>0.97519999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="38">
+        <v>44635</v>
+      </c>
+      <c r="G54" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="38">
+        <v>44639</v>
+      </c>
+      <c r="G55" s="39">
+        <v>0.78239999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="38">
+        <v>44639</v>
+      </c>
+      <c r="G56" s="39">
+        <v>0.30740000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="38">
+        <v>44653</v>
+      </c>
+      <c r="G57" s="39">
+        <v>0.69420000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="38">
+        <v>44659</v>
+      </c>
+      <c r="G58" s="39">
+        <v>0.13140000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="38">
+        <v>44694</v>
+      </c>
+      <c r="G59" s="39">
+        <v>0.7006</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="38">
+        <v>44703</v>
+      </c>
+      <c r="G60" s="39">
+        <v>0.10580000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="38">
+        <v>44708</v>
+      </c>
+      <c r="G61" s="39">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E62" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="38">
+        <v>44713</v>
+      </c>
+      <c r="G62" s="39">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="38">
+        <v>44726</v>
+      </c>
+      <c r="G63" s="39">
+        <v>0.95010000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="38">
+        <v>44728</v>
+      </c>
+      <c r="G64" s="39">
+        <v>0.80559999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="38">
+        <v>44733</v>
+      </c>
+      <c r="G65" s="39">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="38">
+        <v>44781</v>
+      </c>
+      <c r="G66" s="39">
+        <v>0.90060000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="38">
+        <v>44786</v>
+      </c>
+      <c r="G67" s="39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" s="38">
+        <v>44797</v>
+      </c>
+      <c r="G68" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F69" s="38">
+        <v>44808</v>
+      </c>
+      <c r="G69" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" s="38">
+        <v>44833</v>
+      </c>
+      <c r="G70" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F71" s="38">
+        <v>44909</v>
+      </c>
+      <c r="G71" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="38">
+        <v>44939</v>
+      </c>
+      <c r="G72" s="39">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="38">
+        <v>44991</v>
+      </c>
+      <c r="G73" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74" s="38">
+        <v>45009</v>
+      </c>
+      <c r="G74" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="38">
+        <v>45012</v>
+      </c>
+      <c r="G75" s="39">
+        <v>0.85950000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E76" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="38">
+        <v>45017</v>
+      </c>
+      <c r="G76" s="39">
+        <v>0.8859999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="38">
+        <v>45018</v>
+      </c>
+      <c r="G77" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="38">
+        <v>45018</v>
+      </c>
+      <c r="G78" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E79" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="38">
+        <v>45019</v>
+      </c>
+      <c r="G79" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="38">
+        <v>45034</v>
+      </c>
+      <c r="G80" s="39">
+        <v>0.99159999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="38">
+        <v>45034</v>
+      </c>
+      <c r="G81" s="39">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="38">
+        <v>45064</v>
+      </c>
+      <c r="G82" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="F83" s="38">
+        <v>45079</v>
+      </c>
+      <c r="G83" s="39">
+        <v>0.6764</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="38">
+        <v>45109</v>
+      </c>
+      <c r="G84" s="39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F85" s="38">
+        <v>45167</v>
+      </c>
+      <c r="G85" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="38">
+        <v>45168</v>
+      </c>
+      <c r="G86" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" s="38">
+        <v>45172</v>
+      </c>
+      <c r="G87" s="39">
+        <v>0.97319999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="38">
+        <v>45172</v>
+      </c>
+      <c r="G88" s="39">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="38">
+        <v>45172</v>
+      </c>
+      <c r="G89" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F90" s="38">
+        <v>45191</v>
+      </c>
+      <c r="G90" s="39">
+        <v>0.58329999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="38">
+        <v>45191</v>
+      </c>
+      <c r="G91" s="39">
+        <v>0.2833</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" s="38">
+        <v>45191</v>
+      </c>
+      <c r="G92" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E93" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="38">
+        <v>45191</v>
+      </c>
+      <c r="G93" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E94" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="38">
-        <v>44614</v>
-      </c>
-      <c r="E6" s="37">
-        <v>59</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="38">
-        <v>44642</v>
-      </c>
-      <c r="E7" s="37">
-        <v>59</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="38">
-        <v>44673</v>
-      </c>
-      <c r="E8" s="37">
-        <v>59</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="38">
-        <v>44703</v>
-      </c>
-      <c r="E9" s="37">
-        <v>59</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="38">
-        <v>45413</v>
-      </c>
-      <c r="E10" s="37">
-        <v>59</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="38">
-        <v>45444</v>
-      </c>
-      <c r="E11" s="37">
-        <v>59</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="38">
-        <v>45474</v>
-      </c>
-      <c r="E12" s="37">
-        <v>59</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="38">
-        <v>45505</v>
-      </c>
-      <c r="E13" s="37">
-        <v>59</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="38">
-        <v>45536</v>
-      </c>
-      <c r="E14" s="37">
-        <v>59</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="38">
-        <v>45566</v>
-      </c>
-      <c r="E15" s="37">
-        <v>59</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="38">
-        <v>45597</v>
-      </c>
-      <c r="E16" s="37">
-        <v>59</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="38">
-        <v>45627</v>
-      </c>
-      <c r="E17" s="37">
-        <v>59</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="38">
-        <v>45658</v>
-      </c>
-      <c r="E18" s="37">
-        <v>59</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="38">
-        <v>45689</v>
-      </c>
-      <c r="E19" s="37">
-        <v>59</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="38">
-        <v>45717</v>
-      </c>
-      <c r="E20" s="37">
-        <v>59</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="38">
-        <v>45748</v>
-      </c>
-      <c r="E21" s="37">
-        <v>59</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="F94" s="38">
+        <v>45194</v>
+      </c>
+      <c r="G94" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E95" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F95" s="38">
+        <v>45209</v>
+      </c>
+      <c r="G95" s="39">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E96" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F96" s="38">
+        <v>45218</v>
+      </c>
+      <c r="G96" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E97" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="38">
+        <v>45220</v>
+      </c>
+      <c r="G97" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" s="38">
+        <v>45238</v>
+      </c>
+      <c r="G98" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E99" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="38">
+        <v>45249</v>
+      </c>
+      <c r="G99" s="39">
+        <v>0.11840000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="38">
+        <v>45290</v>
+      </c>
+      <c r="G100" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="38">
+        <v>45294</v>
+      </c>
+      <c r="G101" s="39">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E102" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="38">
+        <v>45318</v>
+      </c>
+      <c r="G102" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F103" s="38">
+        <v>45325</v>
+      </c>
+      <c r="G103" s="39">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E104" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="38">
+        <v>45348</v>
+      </c>
+      <c r="G104" s="39">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E105" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="38">
+        <v>45348</v>
+      </c>
+      <c r="G105" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E106" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="38">
+        <v>45348</v>
+      </c>
+      <c r="G106" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E107" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="38">
+        <v>45352</v>
+      </c>
+      <c r="G107" s="39">
+        <v>0.20710000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E108" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F108" s="38">
+        <v>45357</v>
+      </c>
+      <c r="G108" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E109" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" s="38">
+        <v>45414</v>
+      </c>
+      <c r="G109" s="39">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E110" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="38">
+        <v>45430</v>
+      </c>
+      <c r="G110" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E111" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111" s="38">
+        <v>45436</v>
+      </c>
+      <c r="G111" s="39">
+        <v>0.88060000000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112" s="38">
+        <v>45441</v>
+      </c>
+      <c r="G112" s="39">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E113" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113" s="38">
+        <v>45447</v>
+      </c>
+      <c r="G113" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E114" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" s="38">
+        <v>45469</v>
+      </c>
+      <c r="G114" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E115" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="F115" s="38">
+        <v>45473</v>
+      </c>
+      <c r="G115" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E116" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F116" s="38">
+        <v>45473</v>
+      </c>
+      <c r="G116" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E117" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F117" s="38">
+        <v>45529</v>
+      </c>
+      <c r="G117" s="39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E118" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F118" s="38">
+        <v>45575</v>
+      </c>
+      <c r="G118" s="39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E119" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F119" s="38">
+        <v>45612</v>
+      </c>
+      <c r="G119" s="39">
+        <v>0.96060000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E120" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F120" s="38">
+        <v>45612</v>
+      </c>
+      <c r="G120" s="39">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E121" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F121" s="38">
+        <v>45612</v>
+      </c>
+      <c r="G121" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E122" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="38">
+        <v>45623</v>
+      </c>
+      <c r="G122" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E123" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" s="38">
+        <v>45624</v>
+      </c>
+      <c r="G123" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E124" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F124" s="38">
+        <v>45625</v>
+      </c>
+      <c r="G124" s="39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E125" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="F125" s="38">
+        <v>45645</v>
+      </c>
+      <c r="G125" s="39">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E126" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" s="38">
+        <v>45646</v>
+      </c>
+      <c r="G126" s="39">
+        <v>0.97459999999999991</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E127" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="F127" s="38">
+        <v>45647</v>
+      </c>
+      <c r="G127" s="39">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E128" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F128" s="38">
+        <v>45647</v>
+      </c>
+      <c r="G128" s="39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E129" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F129" s="38">
+        <v>45690</v>
+      </c>
+      <c r="G129" s="39">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E130" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="38">
+        <v>45695</v>
+      </c>
+      <c r="G130" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E131" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F131" s="38">
+        <v>45696</v>
+      </c>
+      <c r="G131" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E132" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="F132" s="38">
+        <v>45705</v>
+      </c>
+      <c r="G132" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E133" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F133" s="38">
+        <v>45711</v>
+      </c>
+      <c r="G133" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E134" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F134" s="38">
+        <v>45719</v>
+      </c>
+      <c r="G134" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E135" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F135" s="38">
+        <v>45746</v>
+      </c>
+      <c r="G135" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E136" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="F136" s="38">
         <v>45778</v>
       </c>
-      <c r="E22" s="37">
-        <v>59</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="38">
-        <v>45809</v>
-      </c>
-      <c r="E23" s="37">
-        <v>59</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="38">
-        <v>45839</v>
-      </c>
-      <c r="E24" s="37">
-        <v>59</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="38">
-        <v>45870</v>
-      </c>
-      <c r="E25" s="37">
-        <v>59</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="38">
-        <v>45901</v>
-      </c>
-      <c r="E26" s="37">
-        <v>59</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="38">
-        <v>45931</v>
-      </c>
-      <c r="E27" s="37">
-        <v>59</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="38">
-        <v>45962</v>
-      </c>
-      <c r="E28" s="37">
-        <v>29.5</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="38">
-        <v>45992</v>
-      </c>
-      <c r="E29" s="37">
-        <v>59</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="38">
-        <v>44734</v>
-      </c>
-      <c r="E30" s="37">
-        <v>59</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="38">
-        <v>44764</v>
-      </c>
-      <c r="E31" s="37">
-        <v>58.98</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="38">
-        <v>44795</v>
-      </c>
-      <c r="E32" s="37">
-        <v>59</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="38">
-        <v>44826</v>
-      </c>
-      <c r="E33" s="37">
-        <v>59</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="38">
-        <v>44856</v>
-      </c>
-      <c r="E34" s="37">
-        <v>59</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="38">
-        <v>44887</v>
-      </c>
-      <c r="E35" s="37">
-        <v>59</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="38">
-        <v>44917</v>
-      </c>
-      <c r="E36" s="37">
-        <v>59</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="38">
-        <v>44948</v>
-      </c>
-      <c r="E37" s="37">
-        <v>59</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="38">
-        <v>44979</v>
-      </c>
-      <c r="E38" s="37">
-        <v>59</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="38">
-        <v>45017</v>
-      </c>
-      <c r="E39" s="37">
-        <v>59</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="38">
-        <v>45047</v>
-      </c>
-      <c r="E40" s="37">
-        <v>59</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="38">
-        <v>45078</v>
-      </c>
-      <c r="E41" s="37">
-        <v>59</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="38">
-        <v>45108</v>
-      </c>
-      <c r="E42" s="37">
-        <v>59</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="38">
-        <v>45139</v>
-      </c>
-      <c r="E43" s="37">
-        <v>59</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="38">
-        <v>45170</v>
-      </c>
-      <c r="E44" s="37">
-        <v>59</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="38">
-        <v>45200</v>
-      </c>
-      <c r="E45" s="37">
-        <v>59</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="38">
-        <v>45231</v>
-      </c>
-      <c r="E46" s="37">
-        <v>59</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="38">
-        <v>45261</v>
-      </c>
-      <c r="E47" s="37">
-        <v>59</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="38">
-        <v>45292</v>
-      </c>
-      <c r="E48" s="37">
-        <v>59</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="38">
-        <v>45323</v>
-      </c>
-      <c r="E49" s="37">
-        <v>59</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="38">
-        <v>45352</v>
-      </c>
-      <c r="E50" s="37">
-        <v>59</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="38">
-        <v>45383</v>
-      </c>
-      <c r="E51" s="37">
-        <v>59</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" s="36" t="s">
+      <c r="G136" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E137" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" s="38">
+        <v>45778</v>
+      </c>
+      <c r="G137" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E138" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="F138" s="38">
+        <v>45781</v>
+      </c>
+      <c r="G138" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E139" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F139" s="38">
+        <v>45787</v>
+      </c>
+      <c r="G139" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E140" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" s="38">
+        <v>45787</v>
+      </c>
+      <c r="G140" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E141" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F141" s="38">
+        <v>45790</v>
+      </c>
+      <c r="G141" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E142" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="F142" s="38">
+        <v>45790</v>
+      </c>
+      <c r="G142" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E143" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F143" s="38">
+        <v>45794</v>
+      </c>
+      <c r="G143" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E144" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F144" s="38">
+        <v>45796</v>
+      </c>
+      <c r="G144" s="39">
+        <v>0.35710000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E145" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="F145" s="38">
+        <v>45796</v>
+      </c>
+      <c r="G145" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E146" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="F146" s="38">
+        <v>45796</v>
+      </c>
+      <c r="G146" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E147" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F147" s="38">
+        <v>45803</v>
+      </c>
+      <c r="G147" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E148" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F148" s="38">
+        <v>45803</v>
+      </c>
+      <c r="G148" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E149" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F149" s="38">
+        <v>45803</v>
+      </c>
+      <c r="G149" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E150" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="F150" s="38">
+        <v>45817</v>
+      </c>
+      <c r="G150" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E151" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F151" s="38">
+        <v>45851</v>
+      </c>
+      <c r="G151" s="39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E152" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F152" s="38">
+        <v>45856</v>
+      </c>
+      <c r="G152" s="39">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E153" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="F153" s="38">
+        <v>45856</v>
+      </c>
+      <c r="G153" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E154" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" s="38">
+        <v>45856</v>
+      </c>
+      <c r="G154" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E155" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D55" s="38">
-        <v>45194</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F55" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="38">
-        <v>44639</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" s="40">
-        <v>0.30740000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="38">
-        <v>45935</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="38">
-        <v>45944</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F58" s="40">
-        <v>0.12189999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C59" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="38">
-        <v>42549</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F59" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="38">
+      <c r="F155" s="38">
         <v>45865</v>
       </c>
-      <c r="E60" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="38">
-        <v>45294</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="40">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" s="38">
-        <v>45787</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C63" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="38">
-        <v>45575</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F63" s="40">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C64" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D64" s="38">
-        <v>45696</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F64" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" s="38">
-        <v>45612</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" s="40">
-        <v>4.4000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D66" s="38">
-        <v>45856</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F66" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="38">
-        <v>43793</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F67" s="40">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C68" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="38">
-        <v>45191</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F68" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C69" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="38">
-        <v>45191</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F69" s="40">
-        <v>0.2833</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C70" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" s="38">
-        <v>41730</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F70" s="40">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C71" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D71" s="38">
-        <v>45695</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="38">
-        <v>45469</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="38">
-        <v>41650</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C74" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="38">
-        <v>45623</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D75" s="38">
-        <v>45711</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F75" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="37" t="s">
+      <c r="G155" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E156" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="D76" s="38">
-        <v>44030</v>
-      </c>
-      <c r="E76" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="38">
-        <v>45220</v>
-      </c>
-      <c r="E77" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F77" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="38">
-        <v>42084</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" s="38">
-        <v>44606</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F79" s="40">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="38">
-        <v>45645</v>
-      </c>
-      <c r="E80" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" s="40">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="38">
-        <v>45172</v>
-      </c>
-      <c r="E81" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" s="40">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C82" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="38">
-        <v>45168</v>
-      </c>
-      <c r="E82" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F82" s="40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="38">
-        <v>45357</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F83" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="38">
+      <c r="F156" s="38">
         <v>45877</v>
       </c>
-      <c r="E84" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F84" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C85" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="38">
-        <v>44703</v>
-      </c>
-      <c r="E85" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F85" s="40">
-        <v>0.10580000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C86" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="38">
-        <v>41752</v>
-      </c>
-      <c r="E86" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F86" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D87" s="38">
-        <v>45796</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" s="40">
-        <v>0.35710000000000003</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="38">
-        <v>45958</v>
-      </c>
-      <c r="E88" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F88" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="38">
-        <v>44726</v>
-      </c>
-      <c r="E89" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F89" s="40">
-        <v>0.95010000000000006</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D90" s="38">
-        <v>42480</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F90" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D91" s="38">
-        <v>45624</v>
-      </c>
-      <c r="E91" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F91" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="38">
-        <v>43903</v>
-      </c>
-      <c r="E92" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" s="40">
-        <v>0.31659999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" s="38">
-        <v>42485</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C94" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="38">
-        <v>45705</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F94" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" s="38">
-        <v>45441</v>
-      </c>
-      <c r="E95" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F95" s="40">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="D96" s="38">
-        <v>41650</v>
-      </c>
-      <c r="E96" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F96" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="D97" s="38">
-        <v>44606</v>
-      </c>
-      <c r="E97" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" s="40">
-        <v>0.19239999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D98" s="38">
-        <v>45612</v>
-      </c>
-      <c r="E98" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F98" s="40">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C99" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="38">
-        <v>45172</v>
-      </c>
-      <c r="E99" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F99" s="40">
-        <v>0.97319999999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D100" s="38">
-        <v>45447</v>
-      </c>
-      <c r="E100" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F100" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D101" s="38">
-        <v>45958</v>
-      </c>
-      <c r="E101" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F101" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C102" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="D102" s="38">
-        <v>41860</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F102" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C103" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D103" s="38">
-        <v>45290</v>
-      </c>
-      <c r="E103" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F103" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C104" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="38">
-        <v>45019</v>
-      </c>
-      <c r="E104" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F104" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105" s="38">
-        <v>45790</v>
-      </c>
-      <c r="E105" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F105" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" s="38">
-        <v>45017</v>
-      </c>
-      <c r="E106" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F106" s="40">
-        <v>0.8859999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="D107" s="38">
-        <v>41806</v>
-      </c>
-      <c r="E107" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F107" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C108" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="38">
-        <v>41540</v>
-      </c>
-      <c r="E108" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F108" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C109" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="D109" s="38">
-        <v>42374</v>
-      </c>
-      <c r="E109" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F109" s="40">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C110" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="38">
-        <v>45172</v>
-      </c>
-      <c r="E110" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F110" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="37" t="s">
+      <c r="G156" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E157" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="D111" s="38">
-        <v>41752</v>
-      </c>
-      <c r="E111" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F111" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D112" s="38">
-        <v>45646</v>
-      </c>
-      <c r="E112" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F112" s="40">
-        <v>0.97459999999999991</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="D113" s="38">
-        <v>44142</v>
-      </c>
-      <c r="E113" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F113" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C114" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="D114" s="38">
-        <v>42374</v>
-      </c>
-      <c r="E114" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F114" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="38">
-        <v>44653</v>
-      </c>
-      <c r="E115" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F115" s="40">
-        <v>0.69420000000000004</v>
-      </c>
-    </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C116" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" s="38">
-        <v>45325</v>
-      </c>
-      <c r="E116" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F116" s="40">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D117" s="38">
-        <v>45414</v>
-      </c>
-      <c r="E117" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F117" s="40">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C118" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D118" s="38">
-        <v>45719</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F118" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C119" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="D119" s="38">
-        <v>45647</v>
-      </c>
-      <c r="E119" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F119" s="40">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="38">
-        <v>44606</v>
-      </c>
-      <c r="E120" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F120" s="40">
-        <v>0.86239999999999994</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" s="38">
-        <v>44786</v>
-      </c>
-      <c r="E121" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F121" s="40">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C122" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="D122" s="38">
+      <c r="F157" s="38">
         <v>45902</v>
       </c>
-      <c r="E122" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F122" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C123" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D123" s="38">
-        <v>42485</v>
-      </c>
-      <c r="E123" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F123" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C124" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="38">
-        <v>44694</v>
-      </c>
-      <c r="E124" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F124" s="40">
-        <v>0.7006</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C125" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="D125" s="38">
-        <v>44833</v>
-      </c>
-      <c r="E125" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F125" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C126" s="37" t="s">
+      <c r="G157" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E158" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" s="38">
+        <v>45902</v>
+      </c>
+      <c r="G158" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E159" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F159" s="38">
+        <v>45914</v>
+      </c>
+      <c r="G159" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E160" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="D126" s="38">
-        <v>41860</v>
-      </c>
-      <c r="E126" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F126" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D127" s="38">
-        <v>44909</v>
-      </c>
-      <c r="E127" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F127" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D128" s="38">
-        <v>41650</v>
-      </c>
-      <c r="E128" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F128" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C129" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D129" s="38">
-        <v>45794</v>
-      </c>
-      <c r="E129" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F129" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C130" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D130" s="38">
-        <v>45238</v>
-      </c>
-      <c r="E130" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F130" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C131" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D131" s="38">
-        <v>45348</v>
-      </c>
-      <c r="E131" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F131" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C132" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="38">
-        <v>45012</v>
-      </c>
-      <c r="E132" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F132" s="40">
-        <v>0.85950000000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D133" s="38">
-        <v>44078</v>
-      </c>
-      <c r="E133" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F133" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C134" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D134" s="38">
-        <v>42106</v>
-      </c>
-      <c r="E134" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F134" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C135" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D135" s="38">
-        <v>44151</v>
-      </c>
-      <c r="E135" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F135" s="40">
-        <v>0.21149999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D136" s="38">
-        <v>45430</v>
-      </c>
-      <c r="E136" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F136" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C137" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D137" s="38">
-        <v>44939</v>
-      </c>
-      <c r="E137" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F137" s="40">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C138" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="38">
-        <v>44708</v>
-      </c>
-      <c r="E138" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F138" s="40">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C139" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="D139" s="38">
-        <v>45009</v>
-      </c>
-      <c r="E139" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F139" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C140" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D140" s="38">
-        <v>45318</v>
-      </c>
-      <c r="E140" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F140" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C141" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D141" s="38">
-        <v>45436</v>
-      </c>
-      <c r="E141" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F141" s="40">
-        <v>0.88060000000000005</v>
-      </c>
-    </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C142" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D142" s="38">
+      <c r="F160" s="38">
         <v>45925</v>
       </c>
-      <c r="E142" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F142" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C143" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D143" s="38">
-        <v>45914</v>
-      </c>
-      <c r="E143" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F143" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C144" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="D144" s="38">
-        <v>45191</v>
-      </c>
-      <c r="E144" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F144" s="40">
-        <v>0.58329999999999993</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C145" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D145" s="38">
-        <v>45963</v>
-      </c>
-      <c r="E145" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F145" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D146" s="38">
-        <v>44151</v>
-      </c>
-      <c r="E146" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F146" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C147" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D147" s="38">
-        <v>45787</v>
-      </c>
-      <c r="E147" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F147" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D148" s="38">
-        <v>45963</v>
-      </c>
-      <c r="E148" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F148" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C149" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="38">
-        <v>44073</v>
-      </c>
-      <c r="E149" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F149" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C150" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D150" s="38">
-        <v>44635</v>
-      </c>
-      <c r="E150" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F150" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C151" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D151" s="38">
-        <v>41716</v>
-      </c>
-      <c r="E151" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F151" s="40">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C152" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D152" s="38">
-        <v>45109</v>
-      </c>
-      <c r="E152" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F152" s="40">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C153" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D153" s="38">
-        <v>45529</v>
-      </c>
-      <c r="E153" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F153" s="40">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C154" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="D154" s="38">
-        <v>45612</v>
-      </c>
-      <c r="E154" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F154" s="40">
-        <v>0.96060000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C155" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="D155" s="38">
-        <v>45817</v>
-      </c>
-      <c r="E155" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F155" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C156" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D156" s="38">
-        <v>45191</v>
-      </c>
-      <c r="E156" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F156" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C157" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D157" s="38">
-        <v>45249</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F157" s="40">
-        <v>0.11840000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C158" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D158" s="38">
-        <v>46018</v>
-      </c>
-      <c r="E158" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F158" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D159" s="38">
-        <v>45064</v>
-      </c>
-      <c r="E159" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F159" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C160" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="38">
-        <v>45348</v>
-      </c>
-      <c r="E160" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F160" s="40">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C161" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D161" s="38">
-        <v>45778</v>
-      </c>
+      <c r="G160" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E161" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="F161" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C162" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D162" s="38">
-        <v>42752</v>
-      </c>
+      <c r="F161" s="38">
+        <v>45935</v>
+      </c>
+      <c r="G161" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E162" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F162" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C163" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="D163" s="38">
-        <v>44612</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F162" s="38">
+        <v>45936</v>
+      </c>
+      <c r="G162" s="39">
+        <v>0.90049999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E163" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F163" s="40">
-        <v>0.97519999999999996</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C164" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D164" s="38">
-        <v>45079</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F163" s="38">
+        <v>45944</v>
+      </c>
+      <c r="G163" s="39">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E164" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F164" s="40">
-        <v>0.6764</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C165" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F164" s="38">
+        <v>45944</v>
+      </c>
+      <c r="G164" s="39">
+        <v>0.12189999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E165" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F165" s="38">
+        <v>45948</v>
+      </c>
+      <c r="G165" s="39">
+        <v>0.21350000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E166" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="D165" s="38">
-        <v>45851</v>
-      </c>
-      <c r="E165" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F165" s="40">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D166" s="38">
+      <c r="F166" s="38">
+        <v>45950</v>
+      </c>
+      <c r="G166" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E167" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F167" s="38">
+        <v>45958</v>
+      </c>
+      <c r="G167" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E168" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F168" s="38">
+        <v>45958</v>
+      </c>
+      <c r="G168" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E169" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="F169" s="38">
+        <v>45963</v>
+      </c>
+      <c r="G169" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E170" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F170" s="38">
+        <v>45963</v>
+      </c>
+      <c r="G170" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E171" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F171" s="38">
         <v>46014</v>
       </c>
-      <c r="E166" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F166" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C167" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="D167" s="38">
-        <v>44243</v>
-      </c>
-      <c r="E167" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F167" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C168" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D168" s="38">
-        <v>45473</v>
-      </c>
-      <c r="E168" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F168" s="40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C169" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="D169" s="38">
-        <v>45209</v>
-      </c>
-      <c r="E169" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F169" s="40">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C170" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D170" s="38">
-        <v>45625</v>
-      </c>
-      <c r="E170" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F170" s="40">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="171" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C171" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D171" s="38">
-        <v>45950</v>
-      </c>
-      <c r="E171" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F171" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D172" s="38">
-        <v>44781</v>
-      </c>
+      <c r="G171" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E172" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F172" s="40">
-        <v>0.90060000000000007</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C173" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="D173" s="38">
-        <v>45778</v>
-      </c>
-      <c r="E173" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F173" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C174" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="D174" s="38">
-        <v>44991</v>
-      </c>
-      <c r="E174" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F174" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C175" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D175" s="38">
-        <v>45781</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F175" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C176" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D176" s="38">
-        <v>45902</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F176" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C177" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D177" s="38">
-        <v>45803</v>
-      </c>
-      <c r="E177" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F177" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C178" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D178" s="38">
-        <v>44151</v>
-      </c>
-      <c r="E178" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F178" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C179" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D179" s="38">
-        <v>45690</v>
-      </c>
-      <c r="E179" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F179" s="40">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C180" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="38">
-        <v>44607</v>
-      </c>
-      <c r="E180" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F180" s="40">
-        <v>0.94330000000000003</v>
-      </c>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C181" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D181" s="38">
-        <v>42084</v>
-      </c>
-      <c r="E181" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F181" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C182" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D182" s="38">
-        <v>41753</v>
-      </c>
-      <c r="E182" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F182" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C183" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D183" s="38">
-        <v>45936</v>
-      </c>
-      <c r="E183" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F183" s="40">
-        <v>0.90049999999999997</v>
-      </c>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C184" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D184" s="38">
-        <v>45018</v>
-      </c>
-      <c r="E184" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F184" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C185" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D185" s="38">
-        <v>44151</v>
-      </c>
-      <c r="E185" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F185" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C186" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D186" s="38">
-        <v>44639</v>
-      </c>
-      <c r="E186" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F186" s="40">
-        <v>0.78239999999999998</v>
-      </c>
-    </row>
-    <row r="187" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C187" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D187" s="38">
-        <v>45796</v>
-      </c>
-      <c r="E187" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F187" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C188" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="D188" s="38">
-        <v>41655</v>
-      </c>
-      <c r="E188" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F188" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C189" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D189" s="38">
-        <v>45018</v>
-      </c>
-      <c r="E189" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F189" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C190" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="D190" s="38">
-        <v>45790</v>
-      </c>
-      <c r="E190" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F190" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C191" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D191" s="38">
-        <v>42327</v>
-      </c>
-      <c r="E191" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F191" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C192" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="D192" s="38">
-        <v>43735</v>
-      </c>
-      <c r="E192" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F192" s="40">
-        <v>7.0599999999999996E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C193" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D193" s="38">
-        <v>44733</v>
-      </c>
-      <c r="E193" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F193" s="40">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C194" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D194" s="38">
-        <v>44728</v>
-      </c>
-      <c r="E194" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F194" s="40">
-        <v>0.80559999999999998</v>
-      </c>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C195" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="D195" s="38">
-        <v>45944</v>
-      </c>
-      <c r="E195" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F195" s="40">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C196" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D196" s="38">
-        <v>45856</v>
-      </c>
-      <c r="E196" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F196" s="40">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C197" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="D197" s="38">
-        <v>45856</v>
-      </c>
-      <c r="E197" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F197" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C198" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D198" s="38">
-        <v>45803</v>
-      </c>
-      <c r="E198" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F198" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C199" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="D199" s="38">
-        <v>45948</v>
-      </c>
-      <c r="E199" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F199" s="40">
-        <v>0.21350000000000002</v>
-      </c>
-    </row>
-    <row r="200" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C200" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="38">
-        <v>44659</v>
-      </c>
-      <c r="E200" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F200" s="40">
-        <v>0.13140000000000002</v>
-      </c>
-    </row>
-    <row r="201" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C201" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D201" s="38">
-        <v>41806</v>
-      </c>
-      <c r="E201" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F201" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C202" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="D202" s="38">
-        <v>45034</v>
-      </c>
-      <c r="E202" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F202" s="40">
-        <v>0.99159999999999993</v>
-      </c>
-    </row>
-    <row r="203" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C203" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="D203" s="38">
-        <v>45647</v>
-      </c>
-      <c r="E203" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F203" s="40">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C204" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D204" s="38">
-        <v>44713</v>
-      </c>
-      <c r="E204" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F204" s="40">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C205" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D205" s="38">
-        <v>42021</v>
-      </c>
-      <c r="E205" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F205" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C206" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D206" s="38">
-        <v>45352</v>
-      </c>
-      <c r="E206" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F206" s="40">
-        <v>0.20710000000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C207" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" s="38">
-        <v>44212</v>
-      </c>
-      <c r="E207" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F207" s="40">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C208" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D208" s="38">
-        <v>45167</v>
-      </c>
-      <c r="E208" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F208" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C209" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="D209" s="38">
-        <v>45218</v>
-      </c>
-      <c r="E209" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F209" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C210" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D210" s="38">
-        <v>44078</v>
-      </c>
-      <c r="E210" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F210" s="40">
-        <v>0.10800000000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C211" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D211" s="38">
-        <v>41782</v>
-      </c>
-      <c r="E211" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F211" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C212" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="D212" s="38">
-        <v>45803</v>
-      </c>
-      <c r="E212" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F212" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C213" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="D213" s="38">
-        <v>45473</v>
-      </c>
-      <c r="E213" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F213" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C214" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D214" s="38">
-        <v>45034</v>
-      </c>
-      <c r="E214" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F214" s="40">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C215" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="D215" s="38">
-        <v>44797</v>
-      </c>
-      <c r="E215" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F215" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C216" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="D216" s="38">
-        <v>41770</v>
-      </c>
-      <c r="E216" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F216" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C217" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="D217" s="38">
-        <v>42046</v>
-      </c>
-      <c r="E217" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F217" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C218" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D218" s="38">
-        <v>45348</v>
-      </c>
-      <c r="E218" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F218" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C219" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="D219" s="38">
-        <v>44212</v>
-      </c>
-      <c r="E219" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F219" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="3:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="C220" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="D220" s="38">
-        <v>44808</v>
-      </c>
-      <c r="E220" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F220" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C221" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D221" s="38">
-        <v>43735</v>
-      </c>
-      <c r="E221" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F221" s="40">
-        <v>0.28749999999999998</v>
-      </c>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C222" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="D222" s="38">
-        <v>45746</v>
-      </c>
-      <c r="E222" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F222" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C223" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="D223" s="38">
-        <v>45796</v>
-      </c>
-      <c r="E223" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F223" s="40">
+        <v>277</v>
+      </c>
+      <c r="F172" s="38">
+        <v>46018</v>
+      </c>
+      <c r="G172" s="39">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E3:G3" xr:uid="{B30DA94D-FCF0-47F8-A413-9C84EB98B3F5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:G172">
+    <sortCondition ref="F3:F172"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
